--- a/DataIN.xlsx
+++ b/DataIN.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataIN.xlsx
+++ b/DataIN.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataIN.xlsx
+++ b/DataIN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19460" yWindow="640" windowWidth="18680" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="10500" yWindow="11520" windowWidth="27700" windowHeight="11200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>Traffic Speeds</t>
   </si>
   <si>
-    <t>http://crc-prod-in-wf-elb-1715438255.us-west-2.elb.amazonaws.com/</t>
-  </si>
-  <si>
     <t>Crash</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Flooding</t>
+  </si>
+  <si>
+    <t>http://crc-prod-in-wf-elb-597520926.us-west-2.elb.amazonaws.com/</t>
   </si>
 </sst>
 </file>
@@ -476,14 +476,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -505,7 +507,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -554,6 +556,9 @@
       <c r="A27" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -589,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -600,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -622,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -732,10 +737,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,34 +761,34 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataIN.xlsx
+++ b/DataIN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="11520" windowWidth="27700" windowHeight="11200" tabRatio="500"/>
+    <workbookView xWindow="16580" yWindow="12980" windowWidth="21560" windowHeight="9560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>Flooding</t>
   </si>
   <si>
-    <t>http://crc-prod-in-wf-elb-597520926.us-west-2.elb.amazonaws.com/</t>
+    <t>http://crc-prod-in-wf-elb-916176215.us-west-2.elb.amazonaws.com/</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
